--- a/LH/camp.xlsx
+++ b/LH/camp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project_157c\chicken\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project_157c\chicken\camp-website\LH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83DEA0DF-DAE8-4333-A665-994785BF4C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFA916C-354F-41C6-8DAF-95D5E47E567D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="1665" windowWidth="26445" windowHeight="12930" xr2:uid="{08988400-E58E-44A9-AB55-B4AA90771D2E}"/>
+    <workbookView xWindow="-150" yWindow="1575" windowWidth="26445" windowHeight="12930" xr2:uid="{08988400-E58E-44A9-AB55-B4AA90771D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="125">
   <si>
     <t>Table User: username*, password, email,phone number, type of user, booking history</t>
   </si>
@@ -273,18 +273,12 @@
     <t>Paved</t>
   </si>
   <si>
-    <t>Loop: Bicentennial</t>
-  </si>
-  <si>
     <t>Tent Only Nonelectric</t>
   </si>
   <si>
     <t>Kirby Cove Campground Area</t>
   </si>
   <si>
-    <t>Loop: Coast</t>
-  </si>
-  <si>
     <t>Liberty Glen</t>
   </si>
   <si>
@@ -391,6 +385,30 @@
   </si>
   <si>
     <t>https://www.recreation.gov/camping/campsites/88766</t>
+  </si>
+  <si>
+    <t>https://www.recreation.gov/camping/campsites/10067343</t>
+  </si>
+  <si>
+    <t>https://www.recreation.gov/camping/campsites/38588</t>
+  </si>
+  <si>
+    <t>https://www.recreation.gov/camping/campsites/57153</t>
+  </si>
+  <si>
+    <t>https://www.recreation.gov/camping/campsites/103321</t>
+  </si>
+  <si>
+    <t>https://www.recreation.gov/camping/campsites/4242</t>
+  </si>
+  <si>
+    <t>https://www.recreation.gov/camping/campsites/94158</t>
+  </si>
+  <si>
+    <t>Silver Tip Campground</t>
+  </si>
+  <si>
+    <t>https://www.recreation.gov/camping/campsites/105097</t>
   </si>
 </sst>
 </file>
@@ -473,22 +491,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -501,6 +507,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,14 +835,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A5B8E5-0077-4010-8305-1FAB35041163}">
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -834,7 +852,7 @@
     <col min="9" max="9" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="2"/>
     <col min="12" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="38.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9.140625" style="2"/>
@@ -843,29 +861,29 @@
     <col min="20" max="20" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" style="9" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" style="5" customWidth="1"/>
     <col min="24" max="24" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="52.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -888,14 +906,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -912,25 +930,25 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
       <c r="J18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -960,7 +978,7 @@
       <c r="L19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -990,7 +1008,7 @@
       <c r="V19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W19" s="9" t="s">
+      <c r="W19" s="5" t="s">
         <v>59</v>
       </c>
       <c r="X19" s="2" t="s">
@@ -999,7 +1017,7 @@
       <c r="Y19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Z19" s="9" t="s">
+      <c r="Z19" s="5" t="s">
         <v>61</v>
       </c>
       <c r="AA19" s="2" t="s">
@@ -1012,23 +1030,23 @@
         <v>20</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="2">
         <v>20</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="6" t="s">
         <v>66</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -1037,10 +1055,10 @@
       <c r="O20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="7">
         <v>0.5</v>
       </c>
       <c r="R20" s="2">
@@ -1058,24 +1076,27 @@
       <c r="V20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W20" s="9" t="s">
+      <c r="W20" s="5" t="s">
         <v>60</v>
       </c>
       <c r="Y20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Z20" s="12" t="s">
+      <c r="Z20" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="AD20" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="6" t="s">
         <v>65</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -1084,10 +1105,10 @@
       <c r="O21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="7">
         <v>0.5</v>
       </c>
       <c r="R21" s="2">
@@ -1100,7 +1121,7 @@
         <v>57</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>68</v>
@@ -1108,7 +1129,7 @@
       <c r="Y21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z21" s="12" t="s">
+      <c r="Z21" s="8" t="s">
         <v>67</v>
       </c>
       <c r="AA21" t="s">
@@ -1117,15 +1138,18 @@
       <c r="AB21" t="s">
         <v>72</v>
       </c>
+      <c r="AD21" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="6" t="s">
         <v>73</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -1134,10 +1158,10 @@
       <c r="O22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="7">
         <v>0.29166666666666669</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="7">
         <v>0.33333333333333331</v>
       </c>
       <c r="R22" s="2">
@@ -1158,8 +1182,8 @@
       <c r="Y22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z22" s="12" t="s">
-        <v>101</v>
+      <c r="Z22" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="AA22" t="s">
         <v>70</v>
@@ -1170,27 +1194,30 @@
       <c r="AC22" t="s">
         <v>78</v>
       </c>
+      <c r="AD22" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23" s="7">
         <v>0.5</v>
       </c>
       <c r="R23" s="2">
@@ -1205,33 +1232,36 @@
       <c r="X23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Z23" s="12" t="s">
+      <c r="Z23" s="8" t="s">
         <v>67</v>
       </c>
       <c r="AB23" t="s">
         <v>72</v>
       </c>
+      <c r="AD23" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="10" t="s">
-        <v>81</v>
+      <c r="M24" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="7">
         <v>0.5</v>
       </c>
       <c r="R24" s="2">
@@ -1244,7 +1274,7 @@
         <v>57</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>69</v>
@@ -1252,22 +1282,25 @@
       <c r="X24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Z24" s="12" t="s">
+      <c r="Z24" s="8" t="s">
         <v>62</v>
       </c>
       <c r="AB24" t="s">
         <v>72</v>
       </c>
+      <c r="AD24" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="10" t="s">
-        <v>82</v>
+      <c r="M25" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>55</v>
@@ -1275,10 +1308,10 @@
       <c r="O25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="7">
         <v>0.5</v>
       </c>
       <c r="R25" s="2">
@@ -1296,30 +1329,33 @@
       <c r="X25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Z25" s="12" t="s">
+      <c r="Z25" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="AD25" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="10" t="s">
-        <v>83</v>
+      <c r="M26" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="7">
         <v>0.5</v>
       </c>
       <c r="R26" s="2">
@@ -1340,25 +1376,28 @@
       <c r="Y26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z26" s="12" t="s">
+      <c r="Z26" s="8" t="s">
         <v>67</v>
       </c>
       <c r="AA26" t="s">
         <v>69</v>
       </c>
       <c r="AB26" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="10" t="s">
-        <v>86</v>
+      <c r="M27" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>67</v>
@@ -1366,10 +1405,10 @@
       <c r="O27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="7">
         <v>0.125</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q27" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="R27" s="2">
@@ -1382,7 +1421,7 @@
         <v>75</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>69</v>
@@ -1390,36 +1429,36 @@
       <c r="Y27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Z27" s="12" t="s">
+      <c r="Z27" s="8" t="s">
         <v>67</v>
       </c>
       <c r="AB27" t="s">
         <v>72</v>
       </c>
       <c r="AD27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M28" s="10" t="s">
-        <v>89</v>
+      <c r="M28" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="7">
         <v>0.125</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q28" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="R28" s="2">
@@ -1447,32 +1486,32 @@
         <v>70</v>
       </c>
       <c r="AB28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AD28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="10" t="s">
-        <v>91</v>
+      <c r="M29" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="7">
         <v>0.45833333333333331</v>
       </c>
       <c r="R29" s="2">
@@ -1493,39 +1532,39 @@
       <c r="Y29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z29" s="12" t="s">
-        <v>101</v>
+      <c r="Z29" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="AA29" t="s">
         <v>69</v>
       </c>
       <c r="AB29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AD29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="10" t="s">
-        <v>93</v>
+      <c r="M30" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="7">
         <v>0.125</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="R30" s="2">
@@ -1553,32 +1592,32 @@
         <v>69</v>
       </c>
       <c r="AB30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AD30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M31" s="10" t="s">
-        <v>95</v>
+      <c r="M31" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="7">
         <v>0.125</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="R31" s="2">
@@ -1591,7 +1630,7 @@
         <v>57</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>69</v>
@@ -1602,7 +1641,7 @@
       <c r="Y31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z31" s="12" t="s">
+      <c r="Z31" s="8" t="s">
         <v>67</v>
       </c>
       <c r="AA31" s="2" t="s">
@@ -1612,29 +1651,29 @@
         <v>72</v>
       </c>
       <c r="AD31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="10" t="s">
-        <v>97</v>
+      <c r="M32" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="R32" s="2">
@@ -1662,32 +1701,32 @@
         <v>72</v>
       </c>
       <c r="AC32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="N33" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P33" s="7">
         <v>0.125</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="R33" s="2">
@@ -1711,39 +1750,39 @@
       <c r="Y33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z33" s="12" t="s">
-        <v>101</v>
+      <c r="Z33" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="AB33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC33" t="s">
         <v>78</v>
       </c>
       <c r="AD33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="O34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="7">
         <v>0.125</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="R34" s="2">
@@ -1756,7 +1795,7 @@
         <v>75</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>69</v>
@@ -1768,35 +1807,35 @@
         <v>70</v>
       </c>
       <c r="AB34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC34" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AD34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M35" s="10" t="s">
-        <v>106</v>
+      <c r="M35" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q35" s="7">
         <v>0.5</v>
       </c>
       <c r="R35" s="2">
@@ -1824,35 +1863,35 @@
         <v>69</v>
       </c>
       <c r="AB35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M36" s="10" t="s">
-        <v>108</v>
+      <c r="M36" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P36" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="Q36" s="7">
         <v>0.5</v>
       </c>
       <c r="R36" s="2">
@@ -1880,35 +1919,35 @@
         <v>70</v>
       </c>
       <c r="AB36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M37" s="10" t="s">
-        <v>110</v>
+      <c r="M37" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P37" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="Q37" s="7">
         <v>0.5</v>
       </c>
       <c r="R37" s="2">
@@ -1921,7 +1960,7 @@
         <v>57</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V37" s="2" t="s">
         <v>56</v>
@@ -1942,29 +1981,29 @@
         <v>78</v>
       </c>
       <c r="AD37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M38" s="10" t="s">
-        <v>115</v>
+      <c r="M38" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P38" s="7">
         <v>0.125</v>
       </c>
-      <c r="Q38" s="11">
+      <c r="Q38" s="7">
         <v>0.45833333333333331</v>
       </c>
       <c r="R38" s="2">
@@ -1985,42 +2024,42 @@
       <c r="Y38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z38" s="12" t="s">
+      <c r="Z38" s="8" t="s">
         <v>67</v>
       </c>
       <c r="AA38" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AD38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="10" t="s">
-        <v>117</v>
+      <c r="M39" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="7">
         <v>0.20833333333333334</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="Q39" s="7">
         <v>0.41666666666666669</v>
       </c>
       <c r="R39" s="2">
@@ -2033,7 +2072,7 @@
         <v>57</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V39" s="2" t="s">
         <v>69</v>
@@ -2044,7 +2083,7 @@
       <c r="Y39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z39" s="12" t="s">
+      <c r="Z39" s="8" t="s">
         <v>62</v>
       </c>
       <c r="AA39" s="2" t="s">
@@ -2057,7 +2096,7 @@
         <v>78</v>
       </c>
       <c r="AD39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2074,6 +2113,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A74CD21A60C0484AA393B4767A4841B2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2697052f3220555400207ddc7eaa4529">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e5aa9257-4095-4b76-8ab7-25f978922ad1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62465ebe562d1e4b1360e8c10bc3860e" ns3:_="">
     <xsd:import namespace="e5aa9257-4095-4b76-8ab7-25f978922ad1"/>
@@ -2219,15 +2267,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2235,6 +2274,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A22FDF1-D98C-4517-BC55-D5BA8E94F876}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A739FBEA-AFA0-4B8B-89B2-982D891BDD0E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2248,14 +2295,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A22FDF1-D98C-4517-BC55-D5BA8E94F876}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
